--- a/model_exports/labels/2.0_False_False_5_0.xlsx
+++ b/model_exports/labels/2.0_False_False_5_0.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,20 +466,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,33 +557,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,46 +596,46 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,37 +648,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,33 +687,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,20 +726,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,11 +752,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,24 +778,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -804,33 +804,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-638852256234913792</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,59 +856,59 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,163 +921,163 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-753035409660186624</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,89 +1090,89 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1181,11 +1181,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,33 +1207,33 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-757940960609173505</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,24 +1246,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1285,11 +1285,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1298,24 +1298,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,72 +1324,72 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-989808164907319296</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,11 +1441,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,20 +1467,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,20 +1493,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,20 +1519,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,33 +1545,33 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,37 +1584,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1623,20 +1623,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,24 +1675,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,37 +1701,37 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-559857374312529920</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1740,20 +1740,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-559902019893202944</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,24 +1766,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1792,33 +1792,33 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,24 +1831,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1857,59 +1857,59 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,20 +1922,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1974,37 +1974,37 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-818386811332558848</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-818898970961473536</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,20 +2013,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,37 +2039,37 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-782264769742934016</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,20 +2091,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,20 +2117,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-559857374312529920</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,59 +2143,59 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-559902019893202944</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-622526710358114306</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,63 +2208,63 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,46 +2286,46 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,37 +2377,37 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-507905858265960448</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2416,20 +2416,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,37 +2442,37 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,46 +2533,46 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2598,33 +2598,33 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,20 +2637,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,7 +2663,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,46 +2689,46 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,20 +2754,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,11 +2793,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,24 +2871,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,33 +2910,33 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-611619605899939841</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,24 +3092,24 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -3118,11 +3118,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,20 +3144,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,11 +3196,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -3209,24 +3209,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,11 +3261,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,11 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-755726869270523904</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -3300,37 +3300,37 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,37 +3365,37 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,11 +3417,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,11 +3443,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3469,20 +3469,20 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,46 +3495,46 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-572732322178572288</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-572748274618277888</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-572762505111580673</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,11 +3547,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-573486943880638464</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3560,11 +3560,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,20 +3612,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,46 +3638,46 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-860196024056414208</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,33 +3690,33 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-571264964683436033</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,24 +3729,24 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,11 +3755,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3768,20 +3768,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,33 +3794,33 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-1039755728448352257</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-1039888860501688320</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,11 +3846,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3859,20 +3859,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,37 +3885,37 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-653702331221999616</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-572732322178572288</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-572748274618277888</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-572762505111580673</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,11 +3937,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-573486943880638464</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3950,33 +3950,33 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-860196024056414208</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,37 +3989,37 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -4028,24 +4028,24 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4054,11 +4054,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -4067,33 +4067,33 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,11 +4119,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,11 +4132,11 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -4145,24 +4145,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -4171,24 +4171,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,33 +4210,33 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,7 +4249,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,24 +4275,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,7 +4340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,24 +4353,24 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,59 +4392,59 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-841401006797815808</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -4483,24 +4483,24 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -4509,46 +4509,46 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-999404160775872512</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,7 +4574,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,7 +4587,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,20 +4613,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,33 +4652,33 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,24 +4691,24 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,20 +4717,20 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-941194598453571586</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-952288702339997696</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-952549733930885120</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,37 +4756,37 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-952956945098473472</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,46 +4821,46 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,11 +4873,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,11 +4925,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4938,24 +4938,24 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,37 +4990,37 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -5029,24 +5029,24 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -5055,24 +5055,24 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-517992573227778048</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -5081,11 +5081,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,24 +5094,24 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -5120,33 +5120,33 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B362" t="n">
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,24 +5159,24 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -5185,11 +5185,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -5198,24 +5198,24 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -5224,59 +5224,59 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-782797451639914497</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,11 +5289,11 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -5302,11 +5302,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5315,11 +5315,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-540907891566575616</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,7 +5341,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-541174080833978368</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,7 +5354,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,7 +5393,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,20 +5406,20 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,11 +5432,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,24 +5458,24 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,20 +5484,20 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,7 +5510,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,33 +5523,33 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,85 +5640,85 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B401" t="n">
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,7 +5731,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,7 +5744,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,89 +5770,89 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,11 +5861,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-1018785093295464448</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,20 +5887,20 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,11 +5913,11 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5926,76 +5926,76 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -6004,89 +6004,89 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -6095,27 +6095,27 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B436" t="n">
         <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -6134,33 +6134,33 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B439" t="n">
         <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,24 +6173,24 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B442" t="n">
         <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
         <v>0</v>
@@ -6199,33 +6199,33 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-737572670372339712</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,24 +6251,24 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -6277,20 +6277,20 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,20 +6303,20 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B452" t="n">
         <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,46 +6342,46 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B456" t="n">
         <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,33 +6394,33 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,20 +6433,20 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,33 +6459,33 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,7 +6498,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,11 +6511,11 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -6524,11 +6524,11 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -6537,11 +6537,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -6550,11 +6550,11 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6563,33 +6563,33 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-956932857389309953</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-957576777848717312</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,33 +6615,33 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-737663862317682689</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,7 +6654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-737736248970911744</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,11 +6667,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
         <v>0</v>
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,11 +6693,11 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -6706,59 +6706,59 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-723039191961985026</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,11 +6784,11 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
         <v>0</v>
@@ -6797,24 +6797,24 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B490" t="n">
         <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -6823,20 +6823,20 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,37 +6862,37 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
         <v>0</v>
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,11 +6914,11 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -6927,20 +6927,20 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-953202460994232320</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,20 +6953,20 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-953212881809518592</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,11 +6979,11 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
         <v>1</v>
@@ -6992,11 +6992,11 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
         <v>0</v>
@@ -7005,63 +7005,63 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
         <v>1</v>
@@ -7070,7 +7070,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,33 +7083,33 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,24 +7122,24 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
         <v>0</v>
@@ -7148,20 +7148,20 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,7 +7174,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,24 +7187,24 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,7 +7226,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7239,24 +7239,24 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -7265,50 +7265,50 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
         <v>0</v>
@@ -7317,46 +7317,46 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,20 +7369,20 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,20 +7395,20 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,50 +7421,50 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B538" t="n">
         <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
         <v>1</v>
@@ -7473,11 +7473,11 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C542" t="n">
         <v>1</v>
@@ -7486,11 +7486,11 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
         <v>0</v>
@@ -7499,20 +7499,20 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,7 +7525,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,7 +7538,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,7 +7564,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,7 +7590,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,20 +7603,20 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,11 +7668,11 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
         <v>1</v>
@@ -7681,20 +7681,20 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,50 +7746,50 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -7798,7 +7798,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,24 +7811,24 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
         <v>1</v>
@@ -7837,33 +7837,33 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,20 +7876,20 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,7 +7902,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,7 +7941,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,24 +7954,24 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B579" t="n">
         <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C580" t="n">
         <v>0</v>
@@ -7980,46 +7980,46 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,7 +8032,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,33 +8058,33 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,11 +8110,11 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
         <v>0</v>
@@ -8175,37 +8175,37 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,33 +8214,33 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,24 +8279,24 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -8305,20 +8305,20 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,24 +8383,24 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,11 +8409,11 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -8422,11 +8422,11 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
         <v>1</v>
@@ -8435,11 +8435,11 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-782517721938300928</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,11 +8474,11 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
         <v>1</v>
@@ -8487,11 +8487,11 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C620" t="n">
         <v>1</v>
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -8526,37 +8526,37 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-863988808966053888</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,33 +8591,33 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-928491239808233473</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-928882270554877953</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-928900503953588224</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,11 +8643,11 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-928967839649804289</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-929323628226686976</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,20 +8669,20 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,11 +8695,11 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -8708,33 +8708,33 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B638" t="n">
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,11 +8747,11 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C640" t="n">
         <v>1</v>
@@ -8760,63 +8760,63 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
         <v>0</v>
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-863988808966053888</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,20 +8903,20 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,20 +8929,20 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B654" t="n">
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,11 +8955,11 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,24 +8981,24 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-902843730587115520</t>
         </is>
       </c>
       <c r="B658" t="n">
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
         <v>0</v>
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,20 +9020,20 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,50 +9046,50 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
         <v>0</v>
@@ -9098,11 +9098,11 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -9111,20 +9111,20 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,20 +9137,20 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B670" t="n">
         <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,20 +9163,20 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-764336375894306816</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,46 +9202,46 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-764417813717086208</t>
         </is>
       </c>
       <c r="B675" t="n">
         <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B676" t="n">
         <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,11 +9254,11 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,11 +9319,11 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -9332,11 +9332,11 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-550823263941574657</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,20 +9345,20 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,24 +9384,24 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,11 +9410,11 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,11 +9475,11 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
         <v>1</v>
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,50 +9592,50 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,20 +9644,20 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,11 +9709,11 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
         <v>1</v>
@@ -9722,46 +9722,46 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-997052112126136320</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,11 +9774,11 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,11 +9787,11 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,11 +9800,11 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -9813,11 +9813,11 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-792051379564969985</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C722" t="n">
         <v>0</v>
@@ -9826,11 +9826,11 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -9839,20 +9839,20 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-950713527123066881</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-829258775257346048</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,11 +9865,11 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-829280839464845312</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-829291437292396544</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-829294998201970688</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-829512724761620480</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,11 +9917,11 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-733197295139741697</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C730" t="n">
         <v>1</v>
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-745577469814538240</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-745577469814538240</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,7 +9956,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-833862725059031044</t>
+          <t>t-833912149630078976</t>
         </is>
       </c>
       <c r="B733" t="n">
